--- a/biology/Zoologie/Anacaena/Anacaena.xlsx
+++ b/biology/Zoologie/Anacaena/Anacaena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anacaena est un genre d'Insectes coléoptères de la famille des Hydrophilidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anacaena est un genre d'Insectes coléoptères de la famille des Hydrophilidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (13 mai 2024)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (13 mai 2024) :
 Anacaena advena (Sharp, 1890)
 Anacaena aiyura Komarek, 2009
 Anacaena albay Komarek &amp; Freitag, 2014
@@ -695,10 +709,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Anacaena C.G.Thomson, 1859[2]. Le genre a été créé par l'entomologiste suédois Carl Gustaf Thomson en 1859.
-Anacaena a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Anacaena C.G.Thomson, 1859. Le genre a été créé par l'entomologiste suédois Carl Gustaf Thomson en 1859.
+Anacaena a pour synonymes :
 Creniphilus Motschulsky, 1845
 Crenophilus Agassiz, 1846
 Cryniphilus Motschulsky, 1845
